--- a/vartx_charts.xlsx
+++ b/vartx_charts.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="nouse" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ster" sheetId="2" r:id="rId2"/>
+    <sheet name="allrepro_contage" sheetId="3" r:id="rId3"/>
+    <sheet name="allrepro_catage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
   <si>
     <t>15 YEARS</t>
   </si>
@@ -136,6 +138,84 @@
   </si>
   <si>
     <t>not contracepting</t>
+  </si>
+  <si>
+    <t>IUD, implant</t>
+  </si>
+  <si>
+    <t>injection, pill,</t>
+  </si>
+  <si>
+    <t>patch, ring</t>
+  </si>
+  <si>
+    <t>condom, diaphragm,</t>
+  </si>
+  <si>
+    <t>sponge, foam,</t>
+  </si>
+  <si>
+    <t>insert, jelly</t>
+  </si>
+  <si>
+    <t>periodic abstinence</t>
+  </si>
+  <si>
+    <t>withdrawal</t>
+  </si>
+  <si>
+    <t>not using contraception</t>
+  </si>
+  <si>
+    <t>pregnant</t>
+  </si>
+  <si>
+    <t>seeking pregnancy</t>
+  </si>
+  <si>
+    <t>&lt; 2 months postpartum</t>
+  </si>
+  <si>
+    <t>noncontraceptive</t>
+  </si>
+  <si>
+    <t>sterile</t>
+  </si>
+  <si>
+    <t>never had intercourse</t>
+  </si>
+  <si>
+    <t>since first period</t>
+  </si>
+  <si>
+    <t>no intercourse</t>
+  </si>
+  <si>
+    <t>in 3 months b4</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>1=15-19, 6=40-44)</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
   </si>
 </sst>
 </file>
@@ -700,7 +780,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1:$B$3</c:f>
+              <c:f>ster!$B$1:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="2">
@@ -721,7 +801,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$36</c:f>
+              <c:f>ster!$A$4:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -819,7 +899,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$36</c:f>
+              <c:f>ster!$B$4:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1087,6 +1167,4566 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sterilized  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$B$5:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.07</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.08</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37.54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38.96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.79</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46.58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IUD, implant  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$C$5:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>injection, pill, patch, ring </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$D$5:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.03</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>condom, diaphragm, sponge, foam, insert, jelly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$E$5:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>periodic abstinence  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$F$5:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>withdrawal  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$G$5:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not using contraception  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$H$5:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pregnant  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$I$5:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seeking pregnancy  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$J$5:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 2 months postpartum  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$K$5:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>noncontraceptive sterile </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$L$5:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.69</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>never had intercourse since first period </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$M$5:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>78.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_contage!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no intercourse in 3 months b4 interview</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_contage!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_contage!$N$5:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-B5A5-435C-844A-F959842564FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="2133515376"/>
+        <c:axId val="2133520368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2133515376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2133520368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2133520368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2133515376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sterilized  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IUD, implant  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>injection, pill, patch, ring </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>condom, diaphragm, sponge, foam, insert, jelly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>periodic abstinence  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>withdrawal  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not using contraception  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$H$5:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pregnant  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seeking pregnancy  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$J$5:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 2 months postpartum  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$K$5:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>noncontraceptive sterile </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$L$5:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>never had intercourse since first period </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>49.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allrepro_catage!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no intercourse in 3 months b4 interview</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>allrepro_catage!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>allrepro_catage!$N$5:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-953D-4981-A32F-1DF391BDBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="254731184"/>
+        <c:axId val="254724528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="254731184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254724528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="254724528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254731184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1167,6 +5807,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2173,20 +6893,1030 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2222,6 +7952,76 @@
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2920,7 +8720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
@@ -3365,4 +9165,1960 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U23" sqref="U23:X24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>CONCATENATE(B1," ",B2," ",B3)</f>
+        <v xml:space="preserve">sterilized  </v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:N4" si="0">CONCATENATE(C1," ",C2," ",C3)</f>
+        <v xml:space="preserve">IUD, implant  </v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">injection, pill, patch, ring </v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>condom, diaphragm, sponge, foam, insert, jelly</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">periodic abstinence  </v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">withdrawal  </v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">not using contraception  </v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">pregnant  </v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">seeking pregnancy  </v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt; 2 months postpartum  </v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">noncontraceptive sterile </v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">never had intercourse since first period </v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>no intercourse in 3 months b4 interview</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.82</v>
+      </c>
+      <c r="D5">
+        <v>10.96</v>
+      </c>
+      <c r="E5">
+        <v>1.37</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.19</v>
+      </c>
+      <c r="I5">
+        <v>0.27</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.27</v>
+      </c>
+      <c r="L5">
+        <v>0.27</v>
+      </c>
+      <c r="M5">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="N5">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1.03</v>
+      </c>
+      <c r="D6">
+        <v>17.57</v>
+      </c>
+      <c r="E6">
+        <v>2.33</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1.55</v>
+      </c>
+      <c r="H6">
+        <v>3.88</v>
+      </c>
+      <c r="I6">
+        <v>1.55</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1.29</v>
+      </c>
+      <c r="M6">
+        <v>65.37</v>
+      </c>
+      <c r="N6">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1.98</v>
+      </c>
+      <c r="D7">
+        <v>23.08</v>
+      </c>
+      <c r="E7">
+        <v>5.49</v>
+      </c>
+      <c r="F7">
+        <v>0.44</v>
+      </c>
+      <c r="G7">
+        <v>0.66</v>
+      </c>
+      <c r="H7">
+        <v>7.25</v>
+      </c>
+      <c r="I7">
+        <v>3.08</v>
+      </c>
+      <c r="J7">
+        <v>0.44</v>
+      </c>
+      <c r="K7">
+        <v>0.44</v>
+      </c>
+      <c r="L7">
+        <v>0.66</v>
+      </c>
+      <c r="M7">
+        <v>48.13</v>
+      </c>
+      <c r="N7">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3.16</v>
+      </c>
+      <c r="D8">
+        <v>24.38</v>
+      </c>
+      <c r="E8">
+        <v>11.06</v>
+      </c>
+      <c r="F8">
+        <v>0.23</v>
+      </c>
+      <c r="G8">
+        <v>1.58</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>2.93</v>
+      </c>
+      <c r="J8">
+        <v>0.23</v>
+      </c>
+      <c r="K8">
+        <v>1.35</v>
+      </c>
+      <c r="L8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M8">
+        <v>34.99</v>
+      </c>
+      <c r="N8">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>3.95</v>
+      </c>
+      <c r="D9">
+        <v>31.85</v>
+      </c>
+      <c r="E9">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3.95</v>
+      </c>
+      <c r="H9">
+        <v>8.89</v>
+      </c>
+      <c r="I9">
+        <v>5.43</v>
+      </c>
+      <c r="J9">
+        <v>0.74</v>
+      </c>
+      <c r="K9">
+        <v>0.99</v>
+      </c>
+      <c r="L9">
+        <v>1.73</v>
+      </c>
+      <c r="M9">
+        <v>23.46</v>
+      </c>
+      <c r="N9">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>9.61</v>
+      </c>
+      <c r="D10">
+        <v>26.43</v>
+      </c>
+      <c r="E10">
+        <v>11.11</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>4.2</v>
+      </c>
+      <c r="H10">
+        <v>11.71</v>
+      </c>
+      <c r="I10">
+        <v>8.41</v>
+      </c>
+      <c r="J10">
+        <v>2.7</v>
+      </c>
+      <c r="K10">
+        <v>2.4</v>
+      </c>
+      <c r="L10">
+        <v>1.8</v>
+      </c>
+      <c r="M10">
+        <v>14.71</v>
+      </c>
+      <c r="N10">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0.26</v>
+      </c>
+      <c r="C11">
+        <v>13.95</v>
+      </c>
+      <c r="D11">
+        <v>30.26</v>
+      </c>
+      <c r="E11">
+        <v>11.32</v>
+      </c>
+      <c r="F11">
+        <v>1.05</v>
+      </c>
+      <c r="G11">
+        <v>2.89</v>
+      </c>
+      <c r="H11">
+        <v>7.89</v>
+      </c>
+      <c r="I11">
+        <v>6.84</v>
+      </c>
+      <c r="J11">
+        <v>2.11</v>
+      </c>
+      <c r="K11">
+        <v>1.05</v>
+      </c>
+      <c r="L11">
+        <v>2.37</v>
+      </c>
+      <c r="M11">
+        <v>12.11</v>
+      </c>
+      <c r="N11">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1.87</v>
+      </c>
+      <c r="C12">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="D12">
+        <v>29.14</v>
+      </c>
+      <c r="E12">
+        <v>13.1</v>
+      </c>
+      <c r="F12">
+        <v>0.53</v>
+      </c>
+      <c r="G12">
+        <v>4.28</v>
+      </c>
+      <c r="H12">
+        <v>9.89</v>
+      </c>
+      <c r="I12">
+        <v>8.82</v>
+      </c>
+      <c r="J12">
+        <v>3.48</v>
+      </c>
+      <c r="K12">
+        <v>0.8</v>
+      </c>
+      <c r="L12">
+        <v>1.07</v>
+      </c>
+      <c r="M12">
+        <v>7.49</v>
+      </c>
+      <c r="N12">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="C13">
+        <v>11.19</v>
+      </c>
+      <c r="D13">
+        <v>31.59</v>
+      </c>
+      <c r="E13">
+        <v>11.94</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>3.48</v>
+      </c>
+      <c r="H13">
+        <v>6.97</v>
+      </c>
+      <c r="I13">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J13">
+        <v>3.73</v>
+      </c>
+      <c r="K13">
+        <v>1.99</v>
+      </c>
+      <c r="L13">
+        <v>1.49</v>
+      </c>
+      <c r="M13">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="N13">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>3.63</v>
+      </c>
+      <c r="C14">
+        <v>14.04</v>
+      </c>
+      <c r="D14">
+        <v>28.33</v>
+      </c>
+      <c r="E14">
+        <v>14.29</v>
+      </c>
+      <c r="F14">
+        <v>0.48</v>
+      </c>
+      <c r="G14">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H14">
+        <v>10.41</v>
+      </c>
+      <c r="I14">
+        <v>4.12</v>
+      </c>
+      <c r="J14">
+        <v>3.63</v>
+      </c>
+      <c r="K14">
+        <v>0.97</v>
+      </c>
+      <c r="L14">
+        <v>2.66</v>
+      </c>
+      <c r="M14">
+        <v>6.3</v>
+      </c>
+      <c r="N14">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>5.43</v>
+      </c>
+      <c r="C15">
+        <v>11.74</v>
+      </c>
+      <c r="D15">
+        <v>23.91</v>
+      </c>
+      <c r="E15">
+        <v>13.26</v>
+      </c>
+      <c r="F15">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G15">
+        <v>3.7</v>
+      </c>
+      <c r="H15">
+        <v>9.57</v>
+      </c>
+      <c r="I15">
+        <v>7.83</v>
+      </c>
+      <c r="J15">
+        <v>6.52</v>
+      </c>
+      <c r="K15">
+        <v>1.52</v>
+      </c>
+      <c r="L15">
+        <v>1.52</v>
+      </c>
+      <c r="M15">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N15">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>6.07</v>
+      </c>
+      <c r="C16">
+        <v>11.92</v>
+      </c>
+      <c r="D16">
+        <v>26.4</v>
+      </c>
+      <c r="E16">
+        <v>11.45</v>
+      </c>
+      <c r="F16">
+        <v>1.17</v>
+      </c>
+      <c r="G16">
+        <v>6.78</v>
+      </c>
+      <c r="H16">
+        <v>7.71</v>
+      </c>
+      <c r="I16">
+        <v>7.48</v>
+      </c>
+      <c r="J16">
+        <v>4.21</v>
+      </c>
+      <c r="K16">
+        <v>0.93</v>
+      </c>
+      <c r="L16">
+        <v>1.87</v>
+      </c>
+      <c r="M16">
+        <v>5.14</v>
+      </c>
+      <c r="N16">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>11.89</v>
+      </c>
+      <c r="C17">
+        <v>12.38</v>
+      </c>
+      <c r="D17">
+        <v>21.84</v>
+      </c>
+      <c r="E17">
+        <v>11.17</v>
+      </c>
+      <c r="F17">
+        <v>1.21</v>
+      </c>
+      <c r="G17">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H17">
+        <v>8.98</v>
+      </c>
+      <c r="I17">
+        <v>6.55</v>
+      </c>
+      <c r="J17">
+        <v>5.58</v>
+      </c>
+      <c r="K17">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L17">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M17">
+        <v>3.16</v>
+      </c>
+      <c r="N17">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>11.76</v>
+      </c>
+      <c r="D18">
+        <v>23.02</v>
+      </c>
+      <c r="E18">
+        <v>12.02</v>
+      </c>
+      <c r="F18">
+        <v>0.51</v>
+      </c>
+      <c r="G18">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H18">
+        <v>8.18</v>
+      </c>
+      <c r="I18">
+        <v>5.63</v>
+      </c>
+      <c r="J18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K18">
+        <v>1.53</v>
+      </c>
+      <c r="L18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M18">
+        <v>2.81</v>
+      </c>
+      <c r="N18">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>15.33</v>
+      </c>
+      <c r="C19">
+        <v>11.31</v>
+      </c>
+      <c r="D19">
+        <v>22.11</v>
+      </c>
+      <c r="E19">
+        <v>12.31</v>
+      </c>
+      <c r="F19">
+        <v>1.76</v>
+      </c>
+      <c r="G19">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="H19">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="I19">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J19">
+        <v>5.28</v>
+      </c>
+      <c r="K19">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="L19">
+        <v>1.51</v>
+      </c>
+      <c r="M19">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="N19">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>18.16</v>
+      </c>
+      <c r="C20">
+        <v>10.47</v>
+      </c>
+      <c r="D20">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="E20">
+        <v>11.54</v>
+      </c>
+      <c r="F20">
+        <v>1.71</v>
+      </c>
+      <c r="G20">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H20">
+        <v>10.68</v>
+      </c>
+      <c r="I20">
+        <v>5.34</v>
+      </c>
+      <c r="J20">
+        <v>6.62</v>
+      </c>
+      <c r="K20">
+        <v>1.92</v>
+      </c>
+      <c r="L20">
+        <v>1.92</v>
+      </c>
+      <c r="M20">
+        <v>1.71</v>
+      </c>
+      <c r="N20">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="C21">
+        <v>13.09</v>
+      </c>
+      <c r="D21">
+        <v>14.57</v>
+      </c>
+      <c r="E21">
+        <v>11.85</v>
+      </c>
+      <c r="F21">
+        <v>0.49</v>
+      </c>
+      <c r="G21">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="H21">
+        <v>10.86</v>
+      </c>
+      <c r="I21">
+        <v>5.93</v>
+      </c>
+      <c r="J21">
+        <v>5.93</v>
+      </c>
+      <c r="K21">
+        <v>0.74</v>
+      </c>
+      <c r="L21">
+        <v>2.96</v>
+      </c>
+      <c r="M21">
+        <v>2.96</v>
+      </c>
+      <c r="N21">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>21.74</v>
+      </c>
+      <c r="C22">
+        <v>11.8</v>
+      </c>
+      <c r="D22">
+        <v>14.29</v>
+      </c>
+      <c r="E22">
+        <v>9.52</v>
+      </c>
+      <c r="F22">
+        <v>1.45</v>
+      </c>
+      <c r="G22">
+        <v>3.93</v>
+      </c>
+      <c r="H22">
+        <v>7.45</v>
+      </c>
+      <c r="I22">
+        <v>7.04</v>
+      </c>
+      <c r="J22">
+        <v>9.11</v>
+      </c>
+      <c r="K22">
+        <v>1.45</v>
+      </c>
+      <c r="L22">
+        <v>3.31</v>
+      </c>
+      <c r="M22">
+        <v>1.45</v>
+      </c>
+      <c r="N22">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>21.45</v>
+      </c>
+      <c r="C23">
+        <v>10.31</v>
+      </c>
+      <c r="D23">
+        <v>20.89</v>
+      </c>
+      <c r="E23">
+        <v>7.8</v>
+      </c>
+      <c r="F23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G23">
+        <v>5.01</v>
+      </c>
+      <c r="H23">
+        <v>7.52</v>
+      </c>
+      <c r="I23">
+        <v>6.13</v>
+      </c>
+      <c r="J23">
+        <v>6.69</v>
+      </c>
+      <c r="K23">
+        <v>1.39</v>
+      </c>
+      <c r="L23">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="M23">
+        <v>1.95</v>
+      </c>
+      <c r="N23">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>30.14</v>
+      </c>
+      <c r="C24">
+        <v>9.57</v>
+      </c>
+      <c r="D24">
+        <v>13.62</v>
+      </c>
+      <c r="E24">
+        <v>11.01</v>
+      </c>
+      <c r="F24">
+        <v>0.87</v>
+      </c>
+      <c r="G24">
+        <v>3.77</v>
+      </c>
+      <c r="H24">
+        <v>6.67</v>
+      </c>
+      <c r="I24">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="J24">
+        <v>5.51</v>
+      </c>
+      <c r="K24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L24">
+        <v>2.9</v>
+      </c>
+      <c r="M24">
+        <v>1.45</v>
+      </c>
+      <c r="N24">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>30.07</v>
+      </c>
+      <c r="C25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D25">
+        <v>16.87</v>
+      </c>
+      <c r="E25">
+        <v>7.82</v>
+      </c>
+      <c r="F25">
+        <v>1.22</v>
+      </c>
+      <c r="G25">
+        <v>3.91</v>
+      </c>
+      <c r="H25">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="I25">
+        <v>3.67</v>
+      </c>
+      <c r="J25">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K25">
+        <v>0.24</v>
+      </c>
+      <c r="L25">
+        <v>2.93</v>
+      </c>
+      <c r="M25">
+        <v>1.47</v>
+      </c>
+      <c r="N25">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>32.08</v>
+      </c>
+      <c r="C26">
+        <v>7.23</v>
+      </c>
+      <c r="D26">
+        <v>15.03</v>
+      </c>
+      <c r="E26">
+        <v>8.09</v>
+      </c>
+      <c r="F26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G26">
+        <v>5.2</v>
+      </c>
+      <c r="H26">
+        <v>6.94</v>
+      </c>
+      <c r="I26">
+        <v>2.89</v>
+      </c>
+      <c r="J26">
+        <v>5.2</v>
+      </c>
+      <c r="K26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L26">
+        <v>3.47</v>
+      </c>
+      <c r="M26">
+        <v>1.73</v>
+      </c>
+      <c r="N26">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="C27">
+        <v>7.05</v>
+      </c>
+      <c r="D27">
+        <v>12.18</v>
+      </c>
+      <c r="E27">
+        <v>6.73</v>
+      </c>
+      <c r="F27">
+        <v>1.28</v>
+      </c>
+      <c r="G27">
+        <v>2.88</v>
+      </c>
+      <c r="H27">
+        <v>7.05</v>
+      </c>
+      <c r="I27">
+        <v>2.88</v>
+      </c>
+      <c r="J27">
+        <v>7.05</v>
+      </c>
+      <c r="K27">
+        <v>0.32</v>
+      </c>
+      <c r="L27">
+        <v>7.69</v>
+      </c>
+      <c r="M27">
+        <v>1.6</v>
+      </c>
+      <c r="N27">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>37.54</v>
+      </c>
+      <c r="C28">
+        <v>4.91</v>
+      </c>
+      <c r="D28">
+        <v>8.42</v>
+      </c>
+      <c r="E28">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="F28">
+        <v>1.05</v>
+      </c>
+      <c r="G28">
+        <v>4.21</v>
+      </c>
+      <c r="H28">
+        <v>7.37</v>
+      </c>
+      <c r="I28">
+        <v>2.81</v>
+      </c>
+      <c r="J28">
+        <v>5.61</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>3.86</v>
+      </c>
+      <c r="M28">
+        <v>1.05</v>
+      </c>
+      <c r="N28">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>38.21</v>
+      </c>
+      <c r="C29">
+        <v>6.98</v>
+      </c>
+      <c r="D29">
+        <v>8.64</v>
+      </c>
+      <c r="E29">
+        <v>7.97</v>
+      </c>
+      <c r="F29">
+        <v>1.99</v>
+      </c>
+      <c r="G29">
+        <v>3.99</v>
+      </c>
+      <c r="H29">
+        <v>5.65</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>7.31</v>
+      </c>
+      <c r="K29">
+        <v>0.33</v>
+      </c>
+      <c r="L29">
+        <v>5.98</v>
+      </c>
+      <c r="M29">
+        <v>0.66</v>
+      </c>
+      <c r="N29">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>38.96</v>
+      </c>
+      <c r="C30">
+        <v>7.98</v>
+      </c>
+      <c r="D30">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="E30">
+        <v>7.36</v>
+      </c>
+      <c r="F30">
+        <v>0.92</v>
+      </c>
+      <c r="G30">
+        <v>3.68</v>
+      </c>
+      <c r="H30">
+        <v>7.36</v>
+      </c>
+      <c r="I30">
+        <v>0.92</v>
+      </c>
+      <c r="J30">
+        <v>3.37</v>
+      </c>
+      <c r="K30">
+        <v>0.31</v>
+      </c>
+      <c r="L30">
+        <v>4.91</v>
+      </c>
+      <c r="M30">
+        <v>2.76</v>
+      </c>
+      <c r="N30">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>41.7</v>
+      </c>
+      <c r="C31">
+        <v>5.9</v>
+      </c>
+      <c r="D31">
+        <v>7.75</v>
+      </c>
+      <c r="E31">
+        <v>4.43</v>
+      </c>
+      <c r="F31">
+        <v>1.85</v>
+      </c>
+      <c r="G31">
+        <v>3.69</v>
+      </c>
+      <c r="H31">
+        <v>7.01</v>
+      </c>
+      <c r="I31">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J31">
+        <v>5.9</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>10.33</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>45.79</v>
+      </c>
+      <c r="C32">
+        <v>5.05</v>
+      </c>
+      <c r="D32">
+        <v>8.08</v>
+      </c>
+      <c r="E32">
+        <v>6.06</v>
+      </c>
+      <c r="F32">
+        <v>2.02</v>
+      </c>
+      <c r="G32">
+        <v>2.02</v>
+      </c>
+      <c r="H32">
+        <v>8.08</v>
+      </c>
+      <c r="I32">
+        <v>0.34</v>
+      </c>
+      <c r="J32">
+        <v>3.7</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>5.39</v>
+      </c>
+      <c r="M32">
+        <v>0.34</v>
+      </c>
+      <c r="N32">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>46.58</v>
+      </c>
+      <c r="C33">
+        <v>3.11</v>
+      </c>
+      <c r="D33">
+        <v>6.21</v>
+      </c>
+      <c r="E33">
+        <v>8.39</v>
+      </c>
+      <c r="F33">
+        <v>1.55</v>
+      </c>
+      <c r="G33">
+        <v>2.48</v>
+      </c>
+      <c r="H33">
+        <v>6.21</v>
+      </c>
+      <c r="I33">
+        <v>0.62</v>
+      </c>
+      <c r="J33">
+        <v>7.45</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>9.94</v>
+      </c>
+      <c r="M33">
+        <v>0.62</v>
+      </c>
+      <c r="N33">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>47.28</v>
+      </c>
+      <c r="C34">
+        <v>3.06</v>
+      </c>
+      <c r="D34">
+        <v>9.52</v>
+      </c>
+      <c r="E34">
+        <v>4.42</v>
+      </c>
+      <c r="F34">
+        <v>1.02</v>
+      </c>
+      <c r="G34">
+        <v>1.02</v>
+      </c>
+      <c r="H34">
+        <v>7.14</v>
+      </c>
+      <c r="I34">
+        <v>0.68</v>
+      </c>
+      <c r="J34">
+        <v>2.38</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>11.9</v>
+      </c>
+      <c r="M34">
+        <v>2.04</v>
+      </c>
+      <c r="N34">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>1922</v>
+      </c>
+      <c r="C36">
+        <v>940</v>
+      </c>
+      <c r="D36">
+        <v>2159</v>
+      </c>
+      <c r="E36">
+        <v>1057</v>
+      </c>
+      <c r="F36">
+        <v>102</v>
+      </c>
+      <c r="G36">
+        <v>406</v>
+      </c>
+      <c r="H36">
+        <v>890</v>
+      </c>
+      <c r="I36">
+        <v>487</v>
+      </c>
+      <c r="J36">
+        <v>484</v>
+      </c>
+      <c r="K36">
+        <v>107</v>
+      </c>
+      <c r="L36">
+        <v>355</v>
+      </c>
+      <c r="M36">
+        <v>1350</v>
+      </c>
+      <c r="N36">
+        <v>1011</v>
+      </c>
+      <c r="O36">
+        <v>11270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>CONCATENATE(B1," ",B2," ",B3)</f>
+        <v xml:space="preserve">sterilized  </v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE(C1," ",C2," ",C3)</f>
+        <v xml:space="preserve">IUD, implant  </v>
+      </c>
+      <c r="D4" t="str">
+        <f>CONCATENATE(D1," ",D2," ",D3)</f>
+        <v xml:space="preserve">injection, pill, patch, ring </v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE(E1," ",E2," ",E3)</f>
+        <v>condom, diaphragm, sponge, foam, insert, jelly</v>
+      </c>
+      <c r="F4" t="str">
+        <f>CONCATENATE(F1," ",F2," ",F3)</f>
+        <v xml:space="preserve">periodic abstinence  </v>
+      </c>
+      <c r="G4" t="str">
+        <f>CONCATENATE(G1," ",G2," ",G3)</f>
+        <v xml:space="preserve">withdrawal  </v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE(H1," ",H2," ",H3)</f>
+        <v xml:space="preserve">not using contraception  </v>
+      </c>
+      <c r="I4" t="str">
+        <f>CONCATENATE(I1," ",I2," ",I3)</f>
+        <v xml:space="preserve">pregnant  </v>
+      </c>
+      <c r="J4" t="str">
+        <f>CONCATENATE(J1," ",J2," ",J3)</f>
+        <v xml:space="preserve">seeking pregnancy  </v>
+      </c>
+      <c r="K4" t="str">
+        <f>CONCATENATE(K1," ",K2," ",K3)</f>
+        <v xml:space="preserve">&lt; 2 months postpartum  </v>
+      </c>
+      <c r="L4" t="str">
+        <f>CONCATENATE(L1," ",L2," ",L3)</f>
+        <v xml:space="preserve">noncontraceptive sterile </v>
+      </c>
+      <c r="M4" t="str">
+        <f>CONCATENATE(M1," ",M2," ",M3)</f>
+        <v xml:space="preserve">never had intercourse since first period </v>
+      </c>
+      <c r="N4" t="str">
+        <f>CONCATENATE(N1," ",N2," ",N3)</f>
+        <v>no intercourse in 3 months b4 interview</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D5">
+        <v>21.9</v>
+      </c>
+      <c r="E5">
+        <v>6.28</v>
+      </c>
+      <c r="F5">
+        <v>0.15</v>
+      </c>
+      <c r="G5">
+        <v>1.56</v>
+      </c>
+      <c r="H5">
+        <v>5.99</v>
+      </c>
+      <c r="I5">
+        <v>2.73</v>
+      </c>
+      <c r="J5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.63</v>
+      </c>
+      <c r="L5">
+        <v>1.02</v>
+      </c>
+      <c r="M5">
+        <v>49.15</v>
+      </c>
+      <c r="N5">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>2.1</v>
+      </c>
+      <c r="C6">
+        <v>11.78</v>
+      </c>
+      <c r="D6">
+        <v>29.23</v>
+      </c>
+      <c r="E6">
+        <v>12.41</v>
+      </c>
+      <c r="F6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G6">
+        <v>3.84</v>
+      </c>
+      <c r="H6">
+        <v>9.31</v>
+      </c>
+      <c r="I6">
+        <v>6.41</v>
+      </c>
+      <c r="J6">
+        <v>3.15</v>
+      </c>
+      <c r="K6">
+        <v>1.42</v>
+      </c>
+      <c r="L6">
+        <v>1.89</v>
+      </c>
+      <c r="M6">
+        <v>9.73</v>
+      </c>
+      <c r="N6">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>9.77</v>
+      </c>
+      <c r="C7">
+        <v>11.82</v>
+      </c>
+      <c r="D7">
+        <v>23.5</v>
+      </c>
+      <c r="E7">
+        <v>12.06</v>
+      </c>
+      <c r="F7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G7">
+        <v>5.03</v>
+      </c>
+      <c r="H7">
+        <v>8.66</v>
+      </c>
+      <c r="I7">
+        <v>6.41</v>
+      </c>
+      <c r="J7">
+        <v>5.27</v>
+      </c>
+      <c r="K7">
+        <v>1.68</v>
+      </c>
+      <c r="L7">
+        <v>1.82</v>
+      </c>
+      <c r="M7">
+        <v>3.64</v>
+      </c>
+      <c r="N7">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>21.8</v>
+      </c>
+      <c r="C8">
+        <v>11.12</v>
+      </c>
+      <c r="D8">
+        <v>15.83</v>
+      </c>
+      <c r="E8">
+        <v>10.39</v>
+      </c>
+      <c r="F8">
+        <v>1.07</v>
+      </c>
+      <c r="G8">
+        <v>4.37</v>
+      </c>
+      <c r="H8">
+        <v>8.74</v>
+      </c>
+      <c r="I8">
+        <v>5.78</v>
+      </c>
+      <c r="J8">
+        <v>6.89</v>
+      </c>
+      <c r="K8">
+        <v>1.26</v>
+      </c>
+      <c r="L8">
+        <v>2.72</v>
+      </c>
+      <c r="M8">
+        <v>1.89</v>
+      </c>
+      <c r="N8">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="C9">
+        <v>7.14</v>
+      </c>
+      <c r="D9">
+        <v>12.64</v>
+      </c>
+      <c r="E9">
+        <v>7.99</v>
+      </c>
+      <c r="F9">
+        <v>1.21</v>
+      </c>
+      <c r="G9">
+        <v>4.05</v>
+      </c>
+      <c r="H9">
+        <v>7.32</v>
+      </c>
+      <c r="I9">
+        <v>2.72</v>
+      </c>
+      <c r="J9">
+        <v>5.87</v>
+      </c>
+      <c r="K9">
+        <v>0.3</v>
+      </c>
+      <c r="L9">
+        <v>4.66</v>
+      </c>
+      <c r="M9">
+        <v>1.33</v>
+      </c>
+      <c r="N9">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>44.04</v>
+      </c>
+      <c r="C10">
+        <v>5.03</v>
+      </c>
+      <c r="D10">
+        <v>8.34</v>
+      </c>
+      <c r="E10">
+        <v>6.23</v>
+      </c>
+      <c r="F10">
+        <v>1.46</v>
+      </c>
+      <c r="G10">
+        <v>2.58</v>
+      </c>
+      <c r="H10">
+        <v>7.15</v>
+      </c>
+      <c r="I10">
+        <v>0.73</v>
+      </c>
+      <c r="J10">
+        <v>4.57</v>
+      </c>
+      <c r="K10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L10">
+        <v>8.41</v>
+      </c>
+      <c r="M10">
+        <v>1.19</v>
+      </c>
+      <c r="N10">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/vartx_charts.xlsx
+++ b/vartx_charts.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12330" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="nouse" sheetId="1" r:id="rId1"/>
     <sheet name="ster" sheetId="2" r:id="rId2"/>
     <sheet name="allrepro_contage" sheetId="3" r:id="rId3"/>
     <sheet name="allrepro_catage" sheetId="4" r:id="rId4"/>
+    <sheet name="nouse_edu" sheetId="5" r:id="rId5"/>
+    <sheet name="ster_edu" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>15 YEARS</t>
   </si>
@@ -217,6 +220,39 @@
   <si>
     <t>40-44</t>
   </si>
+  <si>
+    <t>no hs degree</t>
+  </si>
+  <si>
+    <t>hs degree or ged</t>
+  </si>
+  <si>
+    <t>some college no degree</t>
+  </si>
+  <si>
+    <t>associate's</t>
+  </si>
+  <si>
+    <t>bachelor's</t>
+  </si>
+  <si>
+    <t>graduate or professional degree</t>
+  </si>
+  <si>
+    <t>using reversible contraception</t>
+  </si>
+  <si>
+    <t>UNDER 20 YEARS</t>
+  </si>
+  <si>
+    <t>20-24 YEARS</t>
+  </si>
+  <si>
+    <t>25-29 YEARS</t>
+  </si>
+  <si>
+    <t>30-44 YEARS</t>
+  </si>
 </sst>
 </file>
 
@@ -285,6 +321,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Not Using Contraception</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -348,103 +409,100 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>nouse!$B$3:$AG$3</c:f>
+              <c:f>nouse!$B$3:$AF$3</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>15 YEARS</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16 YEARS</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17 YEARS</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18 YEARS</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19 YEARS</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20 YEARS</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21 YEARS</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22 YEARS</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23 YEARS</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24 YEARS</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25 YEARS</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26 YEARS</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27 YEARS</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28 YEARS</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29 YEARS</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30 YEARS</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31 YEARS</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32 YEARS</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33 YEARS</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34 YEARS</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35 YEARS</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36 YEARS</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37 YEARS</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38 YEARS</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39 YEARS</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40 YEARS</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41 YEARS</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42 YEARS</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43 YEARS</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44 YEARS</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>NOT ASCERTAINED</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
@@ -452,10 +510,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nouse!$B$5:$AG$5</c:f>
+              <c:f>nouse!$B$5:$AF$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>14.29</c:v>
                 </c:pt>
@@ -545,9 +603,6 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>9.7200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,6 +633,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -643,6 +754,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5727,6 +5894,956 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nouse_edu!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not using anything</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>nouse_edu!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>no hs degree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hs degree or ged</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>some college no degree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>associate's</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bachelor's</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>graduate or professional degree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nouse_edu!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0E8-4C03-B045-34DD440371C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="10563295"/>
+        <c:axId val="160352879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10563295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160352879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="160352879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10563295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ster_edu!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sterilized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ster_edu!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>no hs degree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hs degree or ged</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>some college no degree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>associate's</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bachelor's</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>graduate or professional degree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ster_edu!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E10-4302-8DD3-3EA8B64B7069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="149858975"/>
+        <c:axId val="149864383"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="149858975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149864383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149864383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149858975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not using anything</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>UNDER 20 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29 YEARS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-44 YEARS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1245-447F-AA92-A1F273A63CF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="152881839"/>
+        <c:axId val="152884335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="152881839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152884335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152884335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152881839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5887,6 +7004,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7871,6 +9108,1515 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8021,6 +10767,111 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8306,113 +11157,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AG6"/>
+  <dimension ref="A3:AF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A3:XFD3 A5:XFD5"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C3" sqref="B3:AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>15</v>
       </c>
-      <c r="R3" t="s">
+      <c r="C3">
         <v>16</v>
       </c>
-      <c r="S3" t="s">
+      <c r="D3">
         <v>17</v>
       </c>
-      <c r="T3" t="s">
+      <c r="E3">
         <v>18</v>
       </c>
-      <c r="U3" t="s">
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="V3" t="s">
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="W3" t="s">
+      <c r="H3">
         <v>21</v>
       </c>
-      <c r="X3" t="s">
+      <c r="I3">
         <v>22</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="J3">
         <v>23</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="K3">
         <v>24</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="L3">
         <v>25</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="M3">
         <v>26</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="N3">
         <v>27</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="O3">
         <v>28</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="P3">
         <v>29</v>
       </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+      <c r="R3">
+        <v>31</v>
+      </c>
+      <c r="S3">
+        <v>32</v>
+      </c>
+      <c r="T3">
+        <v>33</v>
+      </c>
+      <c r="U3">
+        <v>34</v>
+      </c>
+      <c r="V3">
+        <v>35</v>
+      </c>
+      <c r="W3">
+        <v>36</v>
+      </c>
+      <c r="X3">
+        <v>37</v>
+      </c>
+      <c r="Y3">
+        <v>38</v>
+      </c>
+      <c r="Z3">
+        <v>39</v>
+      </c>
+      <c r="AA3">
+        <v>40</v>
+      </c>
+      <c r="AB3">
+        <v>41</v>
+      </c>
+      <c r="AC3">
+        <v>42</v>
+      </c>
+      <c r="AD3">
+        <v>43</v>
+      </c>
+      <c r="AE3">
+        <v>44</v>
+      </c>
       <c r="AF3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -8506,11 +11354,8 @@
       <c r="AE4">
         <v>90.28</v>
       </c>
-      <c r="AF4">
-        <v>100</v>
-      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -8604,11 +11449,8 @@
       <c r="AE5">
         <v>9.7200000000000006</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -8703,9 +11545,6 @@
         <v>216</v>
       </c>
       <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
         <v>7505</v>
       </c>
     </row>
@@ -10721,7 +13560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:N10"/>
     </sheetView>
   </sheetViews>
@@ -10801,55 +13640,55 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
-        <f>CONCATENATE(B1," ",B2," ",B3)</f>
+        <f t="shared" ref="B4:N4" si="0">CONCATENATE(B1," ",B2," ",B3)</f>
         <v xml:space="preserve">sterilized  </v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE(C1," ",C2," ",C3)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">IUD, implant  </v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE(D1," ",D2," ",D3)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">injection, pill, patch, ring </v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE(E1," ",E2," ",E3)</f>
+        <f t="shared" si="0"/>
         <v>condom, diaphragm, sponge, foam, insert, jelly</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE(F1," ",F2," ",F3)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">periodic abstinence  </v>
       </c>
       <c r="G4" t="str">
-        <f>CONCATENATE(G1," ",G2," ",G3)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">withdrawal  </v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE(H1," ",H2," ",H3)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">not using contraception  </v>
       </c>
       <c r="I4" t="str">
-        <f>CONCATENATE(I1," ",I2," ",I3)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">pregnant  </v>
       </c>
       <c r="J4" t="str">
-        <f>CONCATENATE(J1," ",J2," ",J3)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">seeking pregnancy  </v>
       </c>
       <c r="K4" t="str">
-        <f>CONCATENATE(K1," ",K2," ",K3)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">&lt; 2 months postpartum  </v>
       </c>
       <c r="L4" t="str">
-        <f>CONCATENATE(L1," ",L2," ",L3)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">noncontraceptive sterile </v>
       </c>
       <c r="M4" t="str">
-        <f>CONCATENATE(M1," ",M2," ",M3)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">never had intercourse since first period </v>
       </c>
       <c r="N4" t="str">
-        <f>CONCATENATE(N1," ",N2," ",N3)</f>
+        <f t="shared" si="0"/>
         <v>no intercourse in 3 months b4 interview</v>
       </c>
     </row>
@@ -11115,6 +13954,292 @@
       </c>
       <c r="N10">
         <v>10.199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A7 C1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>86.58</v>
+      </c>
+      <c r="C2">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>90.68</v>
+      </c>
+      <c r="C3">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>90.54</v>
+      </c>
+      <c r="C4">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>89.16</v>
+      </c>
+      <c r="C5">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>91.26</v>
+      </c>
+      <c r="C6">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>91.33</v>
+      </c>
+      <c r="C7">
+        <v>8.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>33.89</v>
+      </c>
+      <c r="C2">
+        <v>55.63</v>
+      </c>
+      <c r="D2">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>30.37</v>
+      </c>
+      <c r="C3">
+        <v>62.73</v>
+      </c>
+      <c r="D3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>23.46</v>
+      </c>
+      <c r="C4">
+        <v>69.44</v>
+      </c>
+      <c r="D4">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>26.24</v>
+      </c>
+      <c r="C5">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="D5">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>15.68</v>
+      </c>
+      <c r="C6">
+        <v>78.05</v>
+      </c>
+      <c r="D6">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>18.93</v>
+      </c>
+      <c r="C7">
+        <v>74.61</v>
+      </c>
+      <c r="D7">
+        <v>6.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A5 C1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>92.65</v>
+      </c>
+      <c r="C2">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>90.39</v>
+      </c>
+      <c r="C3">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>91.73</v>
+      </c>
+      <c r="C4">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>87.9</v>
+      </c>
+      <c r="C5">
+        <v>12.1</v>
       </c>
     </row>
   </sheetData>
